--- a/WorkoutSchedule.xlsx
+++ b/WorkoutSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spost\python\workouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A7183-C60C-420B-A17B-99A6505B59DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A1F17B-B190-451E-A5CB-95B8BC04D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -284,6 +284,246 @@
 Trainings inhoud:
 60 min fietsen zone 1 - 30
 min hardlopen zone 1</t>
+  </si>
+  <si>
+    <t>Yoga ma wk11</t>
+  </si>
+  <si>
+    <t>YOGA</t>
+  </si>
+  <si>
+    <t>Yoga training</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>ARCH_AND_CURL</t>
+  </si>
+  <si>
+    <t>yoga excersise arch_and_curl</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>excerciseName</t>
+  </si>
+  <si>
+    <t>ARM_CIRCLES_WITH_BALL_BAND_AND_WEIGHT</t>
+  </si>
+  <si>
+    <t>ACBBW</t>
+  </si>
+  <si>
+    <t>yoga excersise arm circles with ball, band and weight</t>
+  </si>
+  <si>
+    <t>01:00!WUP&amp;AC + 100c&amp;ACBBW</t>
+  </si>
+  <si>
+    <t>CARDIO</t>
+  </si>
+  <si>
+    <t>cardio</t>
+  </si>
+  <si>
+    <t>Cardio ma wk11</t>
+  </si>
+  <si>
+    <t>WEIGHTED_45_DEGREE_PLANK</t>
+  </si>
+  <si>
+    <t>W4DP</t>
+  </si>
+  <si>
+    <t>weighted 45 degree plank</t>
+  </si>
+  <si>
+    <t>9DSH</t>
+  </si>
+  <si>
+    <t>_90_DEGREE_STATIC_HOLD</t>
+  </si>
+  <si>
+    <t>90 degree static hold</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>STRETCH_ABS</t>
+  </si>
+  <si>
+    <t>stretch abs</t>
+  </si>
+  <si>
+    <t>10r!WUP&amp;W4DP@10kgr + 00:10&amp;9DSH@10kgr + !COOL&amp;SA@5kgr</t>
+  </si>
+  <si>
+    <t>Cardio training</t>
+  </si>
+  <si>
+    <t>cardio_training</t>
+  </si>
+  <si>
+    <t>Krachttraining di wk11</t>
+  </si>
+  <si>
+    <t>Krachtttraining</t>
+  </si>
+  <si>
+    <t>KRACHT</t>
+  </si>
+  <si>
+    <t>strength_training</t>
+  </si>
+  <si>
+    <t>krachtttraining</t>
+  </si>
+  <si>
+    <t>_3_WAY_WEIGHTED_CALF_RAISE</t>
+  </si>
+  <si>
+    <t>3WWCF</t>
+  </si>
+  <si>
+    <t>3 way weighted calf raise</t>
+  </si>
+  <si>
+    <t>10r!WUP&amp;W4DP@10kgr + 00:10&amp;3WWCF@9kgr + 100c!COOL&amp;SA@8kgr</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>PLANK</t>
+  </si>
+  <si>
+    <t>CALF_RAISE</t>
+  </si>
+  <si>
+    <t>WARM_UP</t>
+  </si>
+  <si>
+    <t>HIIT</t>
+  </si>
+  <si>
+    <t>hiit</t>
+  </si>
+  <si>
+    <t>high intensity interval training</t>
+  </si>
+  <si>
+    <t>hiittraining wo wk11</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>WEIGHTED_PLANK</t>
+  </si>
+  <si>
+    <t>weighted plank</t>
+  </si>
+  <si>
+    <t>HIIT training</t>
+  </si>
+  <si>
+    <t>!WUP&amp;SA@10kgr@Z1 + (00:30&amp;W4DP@9kgr + 00:10!RUST) * 2 + 10r!COOL&amp;WP@8kgr</t>
+  </si>
+  <si>
+    <t>PILATES</t>
+  </si>
+  <si>
+    <t>pilates</t>
+  </si>
+  <si>
+    <t>pilates do wk11</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FACE_PULL</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>face pull</t>
+  </si>
+  <si>
+    <t>Pilates</t>
+  </si>
+  <si>
+    <t>10r!WUP&amp;SA + 00:10&amp;3WWCF + 100c!COOL&amp;FP</t>
+  </si>
+  <si>
+    <t>Zwemtraining ma wk11</t>
+  </si>
+  <si>
+    <t>Hardlooptraining di wk11</t>
+  </si>
+  <si>
+    <t>15:00!WUP + (01:00@Z3 + 02:00!RUST) * 5 + 10:00@Z1 + 10:00@Z2 + 15:00!COOL</t>
+  </si>
+  <si>
+    <t>Hardlooptraining do wk11</t>
+  </si>
+  <si>
+    <t>Fietstraining vr wk11</t>
+  </si>
+  <si>
+    <t>Fietstraining zo wk11</t>
+  </si>
+  <si>
+    <t>40:00@Z1</t>
+  </si>
+  <si>
+    <t>Hardlooptraining zo wk11</t>
+  </si>
+  <si>
+    <t>20:00@Z1</t>
+  </si>
+  <si>
+    <t>Zwemmen
+Tijd: 60 minuten
+Afstand: 1700m
+Trainings inhoud: 200m
+Gevarieerd inzwemmen.
+8x(25m benen / 25m
+SS armen), 8x(25m RC
+/25m BC), 4x50m BC
+(3slagen snel/3 slagen
+rustig), 200m Z3
+50m herstel andere slag
+100m Z4, 250m gevari-
+eerd uitzwemmen.</t>
+  </si>
+  <si>
+    <t>Hardlopen
+Tijd: 80 minuten
+Trainings inhoud:
+Warming up 15 min
+5 x 1 min zone 3, P2min
+10 min zone 1 en dan 10
+min zone 2
+Cooldown 15 min</t>
+  </si>
+  <si>
+    <t>Koppeltraining
+fietsen - lopen
+Tijd: 90 minuten
+Trainings inhoud:
+40 min fietsen zone 1 - 20
+min hardlopen zone 1</t>
+  </si>
+  <si>
+    <t>200m!ES + (25m!SS + 25m!SS)*8 + (25m!RS + 25m!BC)*8+ (50m!BC)*4 + 200m!BC@Z3 + 50m!ES + 100m!BC@Z4 + 250m!ES</t>
   </si>
 </sst>
 </file>
@@ -333,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,6 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -694,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45012</v>
       </c>
@@ -783,10 +1024,128 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -798,7 +1157,7 @@
           <x14:formula1>
             <xm:f>Workout!$A$2:$A$19967</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B20</xm:sqref>
+          <xm:sqref>B2:B8 B10:B21 B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -808,17 +1167,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.58203125" customWidth="1"/>
-    <col min="3" max="3" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="107" customWidth="1"/>
     <col min="4" max="257" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -897,6 +1256,127 @@
       </c>
       <c r="C7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1388,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{652C6CE9-2903-4BAA-8975-5A5202136E1F}">
           <x14:formula1>
-            <xm:f>workoutType!$A$14:$A$17</xm:f>
+            <xm:f>workoutType!$A$19:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -920,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278AB4F-F574-4CEA-AC22-EFBC8B64D1F6}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -931,10 +1411,11 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,10 +1429,13 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -964,11 +1448,11 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -981,11 +1465,11 @@
       <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -998,11 +1482,11 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1015,11 +1499,11 @@
       <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1032,11 +1516,11 @@
       <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1049,11 +1533,11 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1066,11 +1550,11 @@
       <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1083,11 +1567,11 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1100,11 +1584,11 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1117,11 +1601,11 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1134,11 +1618,11 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1151,76 +1635,297 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>999</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F22" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
